--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Testcase Name</t>
   </si>
@@ -108,24 +108,43 @@
   </si>
   <si>
     <t>Mobile</t>
+  </si>
+  <si>
+    <t>test_loginuser</t>
+  </si>
+  <si>
+    <t>Tony Stark</t>
+  </si>
+  <si>
+    <t>Tony@avengers.com</t>
+  </si>
+  <si>
+    <t>peppeerpotts</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Stark</t>
+  </si>
+  <si>
+    <t>Malibu</t>
+  </si>
+  <si>
+    <t>Florida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,16 +167,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,7 +455,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,10 +570,63 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C3" s="1"/>
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>1994</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3">
+        <v>1234567</v>
+      </c>
+      <c r="Q3">
+        <v>1234567890</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Testcase Name</t>
   </si>
@@ -135,6 +135,30 @@
   </si>
   <si>
     <t>Florida</t>
+  </si>
+  <si>
+    <t>test_incorrectlogin</t>
+  </si>
+  <si>
+    <t>aksjkjsdaslkd</t>
+  </si>
+  <si>
+    <t>alksdjsalkdj@laks.com</t>
+  </si>
+  <si>
+    <t>asdadfsdff</t>
+  </si>
+  <si>
+    <t>test_logout</t>
+  </si>
+  <si>
+    <t>Dexter</t>
+  </si>
+  <si>
+    <t>dexter@email.com</t>
+  </si>
+  <si>
+    <t>test_existingdata</t>
   </si>
 </sst>
 </file>
@@ -452,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,11 +646,53 @@
         <v>1234567890</v>
       </c>
     </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>